--- a/data/pca/factorExposure/factorExposure_2017-12-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-11.xlsx
@@ -729,22 +729,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.008820304931655355</v>
+        <v>0.01249877760630246</v>
       </c>
       <c r="C2">
-        <v>-0.0003024609083837574</v>
+        <v>-0.03913992510823415</v>
       </c>
       <c r="D2">
-        <v>0.0235293782641841</v>
+        <v>0.02887814114862238</v>
       </c>
       <c r="E2">
-        <v>0.05411452102984005</v>
+        <v>0.02728339060892313</v>
       </c>
       <c r="F2">
-        <v>-0.0524941630873175</v>
+        <v>-0.03400127270121064</v>
       </c>
       <c r="G2">
-        <v>0.004222909773159243</v>
+        <v>0.01392795295206105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -752,22 +752,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.07685667206831093</v>
+        <v>0.06481794413886921</v>
       </c>
       <c r="C3">
-        <v>-0.005825528494016865</v>
+        <v>-0.07561875465022458</v>
       </c>
       <c r="D3">
-        <v>-0.0440214389049207</v>
+        <v>0.01368070822441069</v>
       </c>
       <c r="E3">
-        <v>0.2382930503561345</v>
+        <v>0.07772650614400273</v>
       </c>
       <c r="F3">
-        <v>-0.05645233417106246</v>
+        <v>-0.0757642506873015</v>
       </c>
       <c r="G3">
-        <v>0.07772586070069569</v>
+        <v>0.06809619874305464</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -775,22 +775,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0337127515336781</v>
+        <v>0.05744457261763928</v>
       </c>
       <c r="C4">
-        <v>0.02099098598303997</v>
+        <v>-0.06012995767972139</v>
       </c>
       <c r="D4">
-        <v>0.03707143960757188</v>
+        <v>0.02179837003922717</v>
       </c>
       <c r="E4">
-        <v>0.03526628339749825</v>
+        <v>-0.002121241417355804</v>
       </c>
       <c r="F4">
-        <v>-0.0008778918197796018</v>
+        <v>-0.01843920653348805</v>
       </c>
       <c r="G4">
-        <v>-0.0312112732673716</v>
+        <v>0.03831725613974869</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -821,22 +821,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.05912906776417519</v>
+        <v>0.03351912852521729</v>
       </c>
       <c r="C6">
-        <v>0.01285003737726378</v>
+        <v>-0.05560984469458978</v>
       </c>
       <c r="D6">
-        <v>0.05433849062946756</v>
+        <v>0.01602171438418673</v>
       </c>
       <c r="E6">
-        <v>0.03732050523126787</v>
+        <v>0.003030955683071387</v>
       </c>
       <c r="F6">
-        <v>0.04349041258437964</v>
+        <v>-0.01544568998174066</v>
       </c>
       <c r="G6">
-        <v>-0.03476028019394299</v>
+        <v>0.02137746259130451</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -844,22 +844,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02605240775638072</v>
+        <v>0.01835570166896098</v>
       </c>
       <c r="C7">
-        <v>0.06904569622122868</v>
+        <v>-0.03816653935989141</v>
       </c>
       <c r="D7">
-        <v>-0.005409760376540128</v>
+        <v>0.01262877478266861</v>
       </c>
       <c r="E7">
-        <v>0.01135431126953892</v>
+        <v>-0.01640149838517253</v>
       </c>
       <c r="F7">
-        <v>0.0015693473779181</v>
+        <v>-0.009685157482480791</v>
       </c>
       <c r="G7">
-        <v>0.01542926259119804</v>
+        <v>0.07344941173445939</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -867,22 +867,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01551524157873119</v>
+        <v>-0.005295592155439334</v>
       </c>
       <c r="C8">
-        <v>0.01002650419580904</v>
+        <v>-0.01331742392388578</v>
       </c>
       <c r="D8">
-        <v>0.01618491514698714</v>
+        <v>0.003773546972927932</v>
       </c>
       <c r="E8">
-        <v>0.02041731772236123</v>
+        <v>0.01155451944128981</v>
       </c>
       <c r="F8">
-        <v>-0.01417324451053322</v>
+        <v>-0.02287352554911404</v>
       </c>
       <c r="G8">
-        <v>0.01258504704143068</v>
+        <v>0.02449476728299227</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -890,22 +890,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03049108891805294</v>
+        <v>0.02872878308963469</v>
       </c>
       <c r="C9">
-        <v>0.01341878754172665</v>
+        <v>-0.0411083605068085</v>
       </c>
       <c r="D9">
-        <v>0.02495595728576121</v>
+        <v>0.01518246121218425</v>
       </c>
       <c r="E9">
-        <v>0.05412735550078333</v>
+        <v>-0.000192553355518198</v>
       </c>
       <c r="F9">
-        <v>-0.005135316554917324</v>
+        <v>-0.01930159575802568</v>
       </c>
       <c r="G9">
-        <v>-0.02414463838545534</v>
+        <v>0.02976660123965864</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -913,22 +913,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08975407248073984</v>
+        <v>0.07941695772823046</v>
       </c>
       <c r="C10">
-        <v>-0.03253325209246876</v>
+        <v>0.1869944777540379</v>
       </c>
       <c r="D10">
-        <v>-0.1585329875182423</v>
+        <v>-0.01939418934503686</v>
       </c>
       <c r="E10">
-        <v>0.01886440473449073</v>
+        <v>0.01648905005265832</v>
       </c>
       <c r="F10">
-        <v>-0.03166441868149508</v>
+        <v>0.01126764582638428</v>
       </c>
       <c r="G10">
-        <v>0.001668130544599638</v>
+        <v>0.03536917826989934</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -936,22 +936,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.02530307576206983</v>
+        <v>0.03658321387056859</v>
       </c>
       <c r="C11">
-        <v>0.001849610009489224</v>
+        <v>-0.05226178177551052</v>
       </c>
       <c r="D11">
-        <v>0.04523306764134761</v>
+        <v>0.0009360071704228316</v>
       </c>
       <c r="E11">
-        <v>0.01488708883211063</v>
+        <v>-0.006576449465698812</v>
       </c>
       <c r="F11">
-        <v>-0.001273875613959452</v>
+        <v>-0.02739494498014687</v>
       </c>
       <c r="G11">
-        <v>-0.02212577790371065</v>
+        <v>0.009993594400823952</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -959,22 +959,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03186584145043746</v>
+        <v>0.03530789428734554</v>
       </c>
       <c r="C12">
-        <v>0.008692189768639544</v>
+        <v>-0.04376662246863947</v>
       </c>
       <c r="D12">
-        <v>0.04278405200676542</v>
+        <v>0.005199410732570177</v>
       </c>
       <c r="E12">
-        <v>-0.006943769132576479</v>
+        <v>-0.01152428635207249</v>
       </c>
       <c r="F12">
-        <v>0.01163740802388918</v>
+        <v>-0.007323208521814987</v>
       </c>
       <c r="G12">
-        <v>0.004360739879440354</v>
+        <v>0.01537940968892974</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -982,22 +982,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0190609873941131</v>
+        <v>0.01230249582889149</v>
       </c>
       <c r="C13">
-        <v>-0.002695354631842959</v>
+        <v>-0.03249298375200911</v>
       </c>
       <c r="D13">
-        <v>0.01938962889891666</v>
+        <v>0.02452210027814247</v>
       </c>
       <c r="E13">
-        <v>0.050235837207351</v>
+        <v>0.01784118806879657</v>
       </c>
       <c r="F13">
-        <v>0.03905264447139047</v>
+        <v>-0.03166038406274872</v>
       </c>
       <c r="G13">
-        <v>0.01259884100978518</v>
+        <v>0.02530584907450615</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1005,22 +1005,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01379938210519716</v>
+        <v>0.007357975896618547</v>
       </c>
       <c r="C14">
-        <v>0.01582059738754307</v>
+        <v>-0.02483503634009098</v>
       </c>
       <c r="D14">
-        <v>0.007802560767834135</v>
+        <v>0.008331129602533682</v>
       </c>
       <c r="E14">
-        <v>0.0098313504063099</v>
+        <v>-0.008687737769657372</v>
       </c>
       <c r="F14">
-        <v>-0.02168370409148969</v>
+        <v>-0.001102458395188792</v>
       </c>
       <c r="G14">
-        <v>0.01245265322442876</v>
+        <v>0.03263946209000398</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1051,22 +1051,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>0.02422187095159349</v>
+        <v>0.03214495145672501</v>
       </c>
       <c r="C16">
-        <v>0.007890036915893061</v>
+        <v>-0.04204240375399187</v>
       </c>
       <c r="D16">
-        <v>0.04181330409093579</v>
+        <v>0.0007070505287210816</v>
       </c>
       <c r="E16">
-        <v>0.0168955872001527</v>
+        <v>-0.004519450968667615</v>
       </c>
       <c r="F16">
-        <v>5.505101271487847e-05</v>
+        <v>-0.01560354699427723</v>
       </c>
       <c r="G16">
-        <v>-0.02782807313674475</v>
+        <v>0.01474922586315669</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1120,22 +1120,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02300030207054185</v>
+        <v>0.02816326577125502</v>
       </c>
       <c r="C19">
-        <v>0.006861682640892967</v>
+        <v>-0.05455723803376633</v>
       </c>
       <c r="D19">
-        <v>0.03622381564765612</v>
+        <v>0.01491263394115922</v>
       </c>
       <c r="E19">
-        <v>0.04708891051212821</v>
+        <v>0.03091313128113078</v>
       </c>
       <c r="F19">
-        <v>-0.014988679995317</v>
+        <v>-0.04315027295061539</v>
       </c>
       <c r="G19">
-        <v>-0.04787375879184168</v>
+        <v>0.03342174268906579</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1143,22 +1143,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0.00655958999131932</v>
+        <v>0.01112281324987749</v>
       </c>
       <c r="C20">
-        <v>0.002526194595587487</v>
+        <v>-0.03462052182713107</v>
       </c>
       <c r="D20">
-        <v>-0.0002677340632639958</v>
+        <v>0.01300270946230959</v>
       </c>
       <c r="E20">
-        <v>0.03006455787270694</v>
+        <v>0.01762471370266269</v>
       </c>
       <c r="F20">
-        <v>-0.00677335178510287</v>
+        <v>-0.01047811446480563</v>
       </c>
       <c r="G20">
-        <v>0.010024139544303</v>
+        <v>0.02556104941904541</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1166,22 +1166,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0.03873939896395426</v>
+        <v>0.01220583037121664</v>
       </c>
       <c r="C21">
-        <v>0.02542330291103872</v>
+        <v>-0.03366959857769453</v>
       </c>
       <c r="D21">
-        <v>0.01778280114693535</v>
+        <v>0.01579482608600922</v>
       </c>
       <c r="E21">
-        <v>0.02276057092647257</v>
+        <v>0.02290546634829701</v>
       </c>
       <c r="F21">
-        <v>-0.007605301752295203</v>
+        <v>-0.02193652427056805</v>
       </c>
       <c r="G21">
-        <v>-0.02102448950488696</v>
+        <v>0.04849477323161718</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1235,22 +1235,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02253289476997188</v>
+        <v>0.02659480711112178</v>
       </c>
       <c r="C24">
-        <v>0.004710120377158568</v>
+        <v>-0.04543926047201536</v>
       </c>
       <c r="D24">
-        <v>0.03503136658004797</v>
+        <v>0.005895153559270907</v>
       </c>
       <c r="E24">
-        <v>0.01513402395541742</v>
+        <v>-0.01025411825176769</v>
       </c>
       <c r="F24">
-        <v>0.006501373457849525</v>
+        <v>-0.02351244689004786</v>
       </c>
       <c r="G24">
-        <v>-0.02144866186234305</v>
+        <v>0.01317614798080021</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1258,22 +1258,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>0.03707786991867198</v>
+        <v>0.04525257509732451</v>
       </c>
       <c r="C25">
-        <v>0.002841307976114893</v>
+        <v>-0.05077423663061283</v>
       </c>
       <c r="D25">
-        <v>0.03883428779027959</v>
+        <v>0.00977964164422649</v>
       </c>
       <c r="E25">
-        <v>0.03111732469964458</v>
+        <v>-0.01595143261184903</v>
       </c>
       <c r="F25">
-        <v>0.00806290247347346</v>
+        <v>-0.01894304521860506</v>
       </c>
       <c r="G25">
-        <v>-0.02234835910061879</v>
+        <v>0.01898541205358711</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1281,22 +1281,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>0.002378062233476234</v>
+        <v>0.003126325696903686</v>
       </c>
       <c r="C26">
-        <v>0.008056349943278487</v>
+        <v>-0.009188763113380403</v>
       </c>
       <c r="D26">
-        <v>-0.001057304535245902</v>
+        <v>0.02396781140584751</v>
       </c>
       <c r="E26">
-        <v>0.02962014892577492</v>
+        <v>0.00292134204708592</v>
       </c>
       <c r="F26">
-        <v>0.000257793723141393</v>
+        <v>-0.008565755559967551</v>
       </c>
       <c r="G26">
-        <v>0.03371349591603135</v>
+        <v>0.02356505967339331</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1327,22 +1327,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1359343233112855</v>
+        <v>0.1027088134780184</v>
       </c>
       <c r="C28">
-        <v>-0.04761021509370621</v>
+        <v>0.2278553259936764</v>
       </c>
       <c r="D28">
-        <v>-0.2280810633462565</v>
+        <v>-0.01081143247786222</v>
       </c>
       <c r="E28">
-        <v>0.006789422972678055</v>
+        <v>0.007445646708842704</v>
       </c>
       <c r="F28">
-        <v>-0.00814940891430657</v>
+        <v>0.007356575987927326</v>
       </c>
       <c r="G28">
-        <v>0.01950026171645459</v>
+        <v>0.05080075139890897</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1350,22 +1350,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01496487416703705</v>
+        <v>0.01249672614791556</v>
       </c>
       <c r="C29">
-        <v>0.01126565976123453</v>
+        <v>-0.0182167560966946</v>
       </c>
       <c r="D29">
-        <v>0.006181637419670399</v>
+        <v>0.00697643965814046</v>
       </c>
       <c r="E29">
-        <v>0.01294628367937579</v>
+        <v>-0.006272546094487957</v>
       </c>
       <c r="F29">
-        <v>-0.01361320128555299</v>
+        <v>0.004646853109177498</v>
       </c>
       <c r="G29">
-        <v>0.008778656898484803</v>
+        <v>0.02671807403666216</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1373,22 +1373,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04241711938409779</v>
+        <v>0.03966250899669536</v>
       </c>
       <c r="C30">
-        <v>-0.04338156869988651</v>
+        <v>-0.07177889303204667</v>
       </c>
       <c r="D30">
-        <v>0.07606002246186393</v>
+        <v>0.02685140393429895</v>
       </c>
       <c r="E30">
-        <v>0.05947242828678817</v>
+        <v>0.01585304214961014</v>
       </c>
       <c r="F30">
-        <v>-0.01645807436850379</v>
+        <v>-0.04507378105932394</v>
       </c>
       <c r="G30">
-        <v>-0.01110499592189919</v>
+        <v>-0.01042703911673511</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1396,22 +1396,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04573048493434043</v>
+        <v>0.04490256627205014</v>
       </c>
       <c r="C31">
-        <v>0.01767366906099209</v>
+        <v>-0.02705505142205186</v>
       </c>
       <c r="D31">
-        <v>0.02175350983820639</v>
+        <v>0.002393876071397034</v>
       </c>
       <c r="E31">
-        <v>-0.01074789047797435</v>
+        <v>-0.01742042949316474</v>
       </c>
       <c r="F31">
-        <v>-0.04679944551648404</v>
+        <v>0.028750922614371</v>
       </c>
       <c r="G31">
-        <v>-0.003664331526818449</v>
+        <v>0.02337532508740747</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1419,22 +1419,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002632507394195687</v>
+        <v>0.005615134162211669</v>
       </c>
       <c r="C32">
-        <v>0.02892626217373247</v>
+        <v>-0.03546390319123547</v>
       </c>
       <c r="D32">
-        <v>0.01999467126431858</v>
+        <v>-0.004759453680239948</v>
       </c>
       <c r="E32">
-        <v>0.03313237164409233</v>
+        <v>0.01399065847280767</v>
       </c>
       <c r="F32">
-        <v>0.006119049672057493</v>
+        <v>-0.07635815428540499</v>
       </c>
       <c r="G32">
-        <v>-0.06821265701728804</v>
+        <v>0.0548063278271853</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1442,22 +1442,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03330584072607647</v>
+        <v>0.03029373253288731</v>
       </c>
       <c r="C33">
-        <v>-0.01505901857587002</v>
+        <v>-0.0505651545490873</v>
       </c>
       <c r="D33">
-        <v>0.03895550285094442</v>
+        <v>0.01375403485528123</v>
       </c>
       <c r="E33">
-        <v>0.03702828810862523</v>
+        <v>0.01469380578995979</v>
       </c>
       <c r="F33">
-        <v>-0.02571459411466859</v>
+        <v>-0.02568913177878777</v>
       </c>
       <c r="G33">
-        <v>0.01631295785599854</v>
+        <v>0.01710990337261431</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1465,22 +1465,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0.02749069665117099</v>
+        <v>0.04725657756937464</v>
       </c>
       <c r="C34">
-        <v>0.01677586182324803</v>
+        <v>-0.05160570347196212</v>
       </c>
       <c r="D34">
-        <v>0.04191025890781618</v>
+        <v>-0.006378773160825019</v>
       </c>
       <c r="E34">
-        <v>0.01381617281936296</v>
+        <v>-0.015724233095057</v>
       </c>
       <c r="F34">
-        <v>-0.01313614210453263</v>
+        <v>-0.02386880101371253</v>
       </c>
       <c r="G34">
-        <v>-0.02963384126967847</v>
+        <v>0.02381340667787847</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1511,22 +1511,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01671500579774103</v>
+        <v>0.009804273852518518</v>
       </c>
       <c r="C36">
-        <v>0.003825060442007317</v>
+        <v>-0.004663873360639881</v>
       </c>
       <c r="D36">
-        <v>0.001070983509238222</v>
+        <v>0.01108361276284169</v>
       </c>
       <c r="E36">
-        <v>0.01376742210847984</v>
+        <v>-0.002959824227581972</v>
       </c>
       <c r="F36">
-        <v>-0.007109890788118975</v>
+        <v>-0.0002342626835070045</v>
       </c>
       <c r="G36">
-        <v>-0.0006399087079547569</v>
+        <v>0.01564664127179422</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1557,22 +1557,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02411238413223653</v>
+        <v>0.03215919790526722</v>
       </c>
       <c r="C38">
-        <v>0.003370782203827838</v>
+        <v>-0.02205406997320975</v>
       </c>
       <c r="D38">
-        <v>0.01759178012561053</v>
+        <v>-0.008494054837125597</v>
       </c>
       <c r="E38">
-        <v>0.03328621211909629</v>
+        <v>-0.003948073010604858</v>
       </c>
       <c r="F38">
-        <v>-0.0550665658742397</v>
+        <v>-0.007671202806602158</v>
       </c>
       <c r="G38">
-        <v>-0.01600595033447276</v>
+        <v>0.02309085982993649</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1580,22 +1580,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01691231941628663</v>
+        <v>0.03272097792241551</v>
       </c>
       <c r="C39">
-        <v>0.01443808797249897</v>
+        <v>-0.08244490336589923</v>
       </c>
       <c r="D39">
-        <v>0.06569932527660259</v>
+        <v>0.0114185544077454</v>
       </c>
       <c r="E39">
-        <v>0.04979665781599468</v>
+        <v>0.005800880349053811</v>
       </c>
       <c r="F39">
-        <v>0.01273590223839887</v>
+        <v>-0.04160242496567239</v>
       </c>
       <c r="G39">
-        <v>-0.03745988118401486</v>
+        <v>0.01573465454557363</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1603,22 +1603,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>0.02789620811720263</v>
+        <v>0.02008169750563519</v>
       </c>
       <c r="C40">
-        <v>0.001638985561536066</v>
+        <v>-0.0309090236463926</v>
       </c>
       <c r="D40">
-        <v>0.04304157455879634</v>
+        <v>0.01274463255151797</v>
       </c>
       <c r="E40">
-        <v>0.0387167170328496</v>
+        <v>0.01133540915186444</v>
       </c>
       <c r="F40">
-        <v>0.0126001601840516</v>
+        <v>-0.02439794904509367</v>
       </c>
       <c r="G40">
-        <v>-0.02130750328972306</v>
+        <v>0.0168502810349639</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1626,22 +1626,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01309708873115836</v>
+        <v>0.0107110354755697</v>
       </c>
       <c r="C41">
-        <v>-0.0006059586331573463</v>
+        <v>0.003045684872417607</v>
       </c>
       <c r="D41">
-        <v>-0.01019284808386996</v>
+        <v>0.003176322393135498</v>
       </c>
       <c r="E41">
-        <v>0.001294044707852056</v>
+        <v>-0.00854753412709266</v>
       </c>
       <c r="F41">
-        <v>-0.02278308675035721</v>
+        <v>-0.0004481635472687323</v>
       </c>
       <c r="G41">
-        <v>0.0005903918156657997</v>
+        <v>0.01041162342702181</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1649,22 +1649,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>0.1383713753190819</v>
+        <v>0.04115041204490561</v>
       </c>
       <c r="C42">
-        <v>-0.09315109467153371</v>
+        <v>-0.05446166158758009</v>
       </c>
       <c r="D42">
-        <v>0.1575026869048665</v>
+        <v>0.1035063104000442</v>
       </c>
       <c r="E42">
-        <v>0.2303775592677984</v>
+        <v>0.08353675465384816</v>
       </c>
       <c r="F42">
-        <v>0.04682791828189711</v>
+        <v>0.1198947896489353</v>
       </c>
       <c r="G42">
-        <v>0.3351380023490682</v>
+        <v>-0.2213193453579339</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1672,22 +1672,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01759522210581086</v>
+        <v>0.02665233824487542</v>
       </c>
       <c r="C43">
-        <v>-0.002288811017940439</v>
+        <v>-0.005650477524502046</v>
       </c>
       <c r="D43">
-        <v>-0.004387051143349304</v>
+        <v>0.003226986952947218</v>
       </c>
       <c r="E43">
-        <v>0.006001076931349415</v>
+        <v>-0.004982126783717063</v>
       </c>
       <c r="F43">
-        <v>-0.01516944431881506</v>
+        <v>-0.003467438912142815</v>
       </c>
       <c r="G43">
-        <v>0.01419085301878636</v>
+        <v>0.01310695948703988</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1695,22 +1695,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>0.007810787241547261</v>
+        <v>0.01738600724937729</v>
       </c>
       <c r="C44">
-        <v>0.01308885232515628</v>
+        <v>-0.04840150031693988</v>
       </c>
       <c r="D44">
-        <v>0.01666284196882773</v>
+        <v>0.006621411348761124</v>
       </c>
       <c r="E44">
-        <v>0.07260577846455699</v>
+        <v>0.01699826423646488</v>
       </c>
       <c r="F44">
-        <v>-0.02013684333371141</v>
+        <v>-0.0258785452744822</v>
       </c>
       <c r="G44">
-        <v>-0.01464542455965639</v>
+        <v>0.03100627568920969</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1741,22 +1741,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>0.007065445357457405</v>
+        <v>0.000722999305028712</v>
       </c>
       <c r="C46">
-        <v>0.007185419357712827</v>
+        <v>-0.01563762802477278</v>
       </c>
       <c r="D46">
-        <v>0.02442280052305798</v>
+        <v>0.01151036540695864</v>
       </c>
       <c r="E46">
-        <v>0.03004068015447462</v>
+        <v>-0.007956612281661866</v>
       </c>
       <c r="F46">
-        <v>-0.0309183824205779</v>
+        <v>0.007995847361065411</v>
       </c>
       <c r="G46">
-        <v>0.004765691397464639</v>
+        <v>0.01994869303405162</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1764,22 +1764,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07073046152883157</v>
+        <v>0.07546009718665517</v>
       </c>
       <c r="C47">
-        <v>0.004786158520922031</v>
+        <v>-0.05862471730053637</v>
       </c>
       <c r="D47">
-        <v>0.03653201847130051</v>
+        <v>-0.005557064712481316</v>
       </c>
       <c r="E47">
-        <v>-0.03826612458178127</v>
+        <v>-0.01905332669672535</v>
       </c>
       <c r="F47">
-        <v>-0.02820298596266593</v>
+        <v>0.06054871355202515</v>
       </c>
       <c r="G47">
-        <v>0.03285521947141922</v>
+        <v>0.01402190660037951</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1787,22 +1787,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02646136178875533</v>
+        <v>0.0153419888048252</v>
       </c>
       <c r="C48">
-        <v>0.00463967812108184</v>
+        <v>-0.01000778673606813</v>
       </c>
       <c r="D48">
-        <v>0.006325470612538932</v>
+        <v>0.0008545135328204464</v>
       </c>
       <c r="E48">
-        <v>0.01377784107780648</v>
+        <v>-0.008335296913225496</v>
       </c>
       <c r="F48">
-        <v>-0.007814154214296673</v>
+        <v>0.01277527904713885</v>
       </c>
       <c r="G48">
-        <v>-0.0006794460028885303</v>
+        <v>0.01761508983860188</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1833,22 +1833,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07132926390118771</v>
+        <v>0.07847454046763459</v>
       </c>
       <c r="C50">
-        <v>0.03661049848467006</v>
+        <v>-0.05995537672513209</v>
       </c>
       <c r="D50">
-        <v>0.0495492146201379</v>
+        <v>-0.004368723840795099</v>
       </c>
       <c r="E50">
-        <v>-0.02116866270990738</v>
+        <v>-0.02085972165359701</v>
       </c>
       <c r="F50">
-        <v>-0.05735166580911853</v>
+        <v>0.05977545131708831</v>
       </c>
       <c r="G50">
-        <v>0.0516941623016021</v>
+        <v>0.03793126935656576</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1856,22 +1856,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01427720817540595</v>
+        <v>0.01684067416548987</v>
       </c>
       <c r="C51">
-        <v>0.007128469671620921</v>
+        <v>-0.02807964157277639</v>
       </c>
       <c r="D51">
-        <v>-0.01760501355000864</v>
+        <v>0.008732497421058416</v>
       </c>
       <c r="E51">
-        <v>0.05451349054739285</v>
+        <v>0.006833115637238357</v>
       </c>
       <c r="F51">
-        <v>-0.01456102217796162</v>
+        <v>-0.03670581864553107</v>
       </c>
       <c r="G51">
-        <v>-0.01370466639548933</v>
+        <v>0.03862879137930006</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1902,22 +1902,22 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>0.0911359317283655</v>
+        <v>0.1003096052917883</v>
       </c>
       <c r="C53">
-        <v>0.02290111430910708</v>
+        <v>-0.07157997043265102</v>
       </c>
       <c r="D53">
-        <v>0.06456282304823392</v>
+        <v>-0.00655322827062112</v>
       </c>
       <c r="E53">
-        <v>-0.06079288007082666</v>
+        <v>-0.04054179953662042</v>
       </c>
       <c r="F53">
-        <v>-0.000214742479053001</v>
+        <v>0.06714059436451572</v>
       </c>
       <c r="G53">
-        <v>0.02132949118786426</v>
+        <v>0.01674948724249254</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1925,22 +1925,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02622559603964074</v>
+        <v>0.027969694603148</v>
       </c>
       <c r="C54">
-        <v>0.009773993842874721</v>
+        <v>-0.00358097163582198</v>
       </c>
       <c r="D54">
-        <v>0.002600512520084135</v>
+        <v>-0.004493446235644664</v>
       </c>
       <c r="E54">
-        <v>-0.004979626415773687</v>
+        <v>-0.001085610606589736</v>
       </c>
       <c r="F54">
-        <v>-0.02271500552778341</v>
+        <v>0.003416898888687527</v>
       </c>
       <c r="G54">
-        <v>-0.01228643877652878</v>
+        <v>0.0260713042621328</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1948,22 +1948,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>0.06619444471501949</v>
+        <v>0.07585514959464416</v>
       </c>
       <c r="C55">
-        <v>0.01567559679098606</v>
+        <v>-0.06545985088523698</v>
       </c>
       <c r="D55">
-        <v>0.07336550384655119</v>
+        <v>-0.005548730212452111</v>
       </c>
       <c r="E55">
-        <v>-0.04649294448964581</v>
+        <v>-0.03123080136962132</v>
       </c>
       <c r="F55">
-        <v>-0.0345523437954857</v>
+        <v>0.06229369525917999</v>
       </c>
       <c r="G55">
-        <v>0.02912168026476009</v>
+        <v>0.005137417489540809</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1971,22 +1971,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1291865280145303</v>
+        <v>0.1516118410726543</v>
       </c>
       <c r="C56">
-        <v>0.01953106742848184</v>
+        <v>-0.09245980323684561</v>
       </c>
       <c r="D56">
-        <v>0.09361877507534058</v>
+        <v>-0.01549602018398766</v>
       </c>
       <c r="E56">
-        <v>-0.08955564528727462</v>
+        <v>-0.04363059199567788</v>
       </c>
       <c r="F56">
-        <v>-0.004160180980049373</v>
+        <v>0.1039211485355485</v>
       </c>
       <c r="G56">
-        <v>0.01747710872300293</v>
+        <v>-0.005231800526566184</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1994,22 +1994,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>0.03550507239060662</v>
+        <v>0.01465424664875822</v>
       </c>
       <c r="C57">
-        <v>-0.002690808715384644</v>
+        <v>-0.01159460836861685</v>
       </c>
       <c r="D57">
-        <v>0.03080563926350308</v>
+        <v>0.02382139181960865</v>
       </c>
       <c r="E57">
-        <v>0.0454930117016758</v>
+        <v>0.03196622255915078</v>
       </c>
       <c r="F57">
-        <v>-0.002197896970710646</v>
+        <v>-0.01637243129960218</v>
       </c>
       <c r="G57">
-        <v>0.000883323738334418</v>
+        <v>0.0225152290181503</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2017,22 +2017,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1529415706039476</v>
+        <v>0.07070886838555118</v>
       </c>
       <c r="C58">
-        <v>-0.113022666751725</v>
+        <v>-0.07132770132978423</v>
       </c>
       <c r="D58">
-        <v>0.154260384820209</v>
+        <v>0.01917189338929984</v>
       </c>
       <c r="E58">
-        <v>0.5079063647497087</v>
+        <v>0.9458872321206485</v>
       </c>
       <c r="F58">
-        <v>-0.3777828096314598</v>
+        <v>0.2239465972640101</v>
       </c>
       <c r="G58">
-        <v>0.4541813850495025</v>
+        <v>0.07075347760136659</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2040,22 +2040,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1392888707484919</v>
+        <v>0.1430821207483048</v>
       </c>
       <c r="C59">
-        <v>-0.06631128929152708</v>
+        <v>0.2195546270455051</v>
       </c>
       <c r="D59">
-        <v>-0.1914707262715196</v>
+        <v>-0.01824233937098925</v>
       </c>
       <c r="E59">
-        <v>0.04504488043657448</v>
+        <v>0.01555959248519275</v>
       </c>
       <c r="F59">
-        <v>0.002842007954188865</v>
+        <v>-0.01488934136621279</v>
       </c>
       <c r="G59">
-        <v>-0.04619463010020893</v>
+        <v>0.01791955999600757</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2063,22 +2063,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2065459179485284</v>
+        <v>0.2950379932928584</v>
       </c>
       <c r="C60">
-        <v>-0.04431148733767539</v>
+        <v>-0.07453756629317547</v>
       </c>
       <c r="D60">
-        <v>0.04397685079278419</v>
+        <v>0.005648198851760035</v>
       </c>
       <c r="E60">
-        <v>0.2091146302460705</v>
+        <v>0.02405562234941023</v>
       </c>
       <c r="F60">
-        <v>0.2161572339137276</v>
+        <v>-0.3941343422691532</v>
       </c>
       <c r="G60">
-        <v>-0.3187489584844928</v>
+        <v>-0.0419366460033923</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2086,22 +2086,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03095036912102839</v>
+        <v>0.03295825809831511</v>
       </c>
       <c r="C61">
-        <v>0.008243489136396224</v>
+        <v>-0.06276550641888723</v>
       </c>
       <c r="D61">
-        <v>0.05724184962114725</v>
+        <v>0.00469294034654784</v>
       </c>
       <c r="E61">
-        <v>0.02965648211416869</v>
+        <v>0.001318944628508977</v>
       </c>
       <c r="F61">
-        <v>0.003034930316166423</v>
+        <v>-0.02702603395506918</v>
       </c>
       <c r="G61">
-        <v>-0.0509401161078654</v>
+        <v>0.0167632510572291</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2132,22 +2132,22 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01595638548388266</v>
+        <v>0.01349407676872663</v>
       </c>
       <c r="C63">
-        <v>0.008651693736564131</v>
+        <v>-0.0273067051528157</v>
       </c>
       <c r="D63">
-        <v>0.02170208614064208</v>
+        <v>0.007556397563925676</v>
       </c>
       <c r="E63">
-        <v>0.0008213949405655659</v>
+        <v>-0.01843767451732534</v>
       </c>
       <c r="F63">
-        <v>-0.01031079711544909</v>
+        <v>0.005616975317102623</v>
       </c>
       <c r="G63">
-        <v>0.02081565083199463</v>
+        <v>0.02141516734872347</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2155,22 +2155,22 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04757786228572648</v>
+        <v>0.0467465796445484</v>
       </c>
       <c r="C64">
-        <v>0.007539759643836292</v>
+        <v>-0.03413451712286437</v>
       </c>
       <c r="D64">
-        <v>0.04355414400983432</v>
+        <v>0.004274361271672358</v>
       </c>
       <c r="E64">
-        <v>0.01683578112197872</v>
+        <v>-0.01465118287084479</v>
       </c>
       <c r="F64">
-        <v>-0.002040265581931407</v>
+        <v>-0.01498704412531894</v>
       </c>
       <c r="G64">
-        <v>-0.007990433424972389</v>
+        <v>0.0139099720963773</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2178,22 +2178,22 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>0.06729130961606336</v>
+        <v>0.08060375413380509</v>
       </c>
       <c r="C65">
-        <v>0.01276277161292819</v>
+        <v>-0.0648529668637521</v>
       </c>
       <c r="D65">
-        <v>0.05834378221595179</v>
+        <v>0.0145455945195726</v>
       </c>
       <c r="E65">
-        <v>0.03437632420011181</v>
+        <v>-0.001859180862387254</v>
       </c>
       <c r="F65">
-        <v>0.0475078122068013</v>
+        <v>-0.03728944677486951</v>
       </c>
       <c r="G65">
-        <v>-0.0410214914059996</v>
+        <v>0.009694186705072202</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2201,22 +2201,22 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>0.03793027486292604</v>
+        <v>0.05450959324929625</v>
       </c>
       <c r="C66">
-        <v>-0.001889136264956678</v>
+        <v>-0.1161720772014041</v>
       </c>
       <c r="D66">
-        <v>0.08803911101415074</v>
+        <v>0.01057185729501245</v>
       </c>
       <c r="E66">
-        <v>0.0308339822218938</v>
+        <v>0.006803777963278961</v>
       </c>
       <c r="F66">
-        <v>0.02888095668139781</v>
+        <v>-0.04810965955190585</v>
       </c>
       <c r="G66">
-        <v>-0.04383304946659271</v>
+        <v>0.004824147298218214</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2224,22 +2224,22 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04099822279220619</v>
+        <v>0.05743524401278446</v>
       </c>
       <c r="C67">
-        <v>0.0009326611303777014</v>
+        <v>-0.02379712290760821</v>
       </c>
       <c r="D67">
-        <v>0.018512095563534</v>
+        <v>-0.007377335875864225</v>
       </c>
       <c r="E67">
-        <v>0.01585968796922203</v>
+        <v>-0.01057665056012811</v>
       </c>
       <c r="F67">
-        <v>-0.04971532725353563</v>
+        <v>-0.006958337451247814</v>
       </c>
       <c r="G67">
-        <v>-0.02642346702906274</v>
+        <v>0.02312850481948373</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2247,22 +2247,22 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1216347593970199</v>
+        <v>0.1136661350961403</v>
       </c>
       <c r="C68">
-        <v>-0.06406051867642333</v>
+        <v>0.2714482323697116</v>
       </c>
       <c r="D68">
-        <v>-0.2117451694861621</v>
+        <v>0.0002009489434905097</v>
       </c>
       <c r="E68">
-        <v>0.008717983111306024</v>
+        <v>0.01229923380105464</v>
       </c>
       <c r="F68">
-        <v>0.00538645668543853</v>
+        <v>0.01730637216419597</v>
       </c>
       <c r="G68">
-        <v>-0.001761417662940275</v>
+        <v>0.0174008191178214</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2270,22 +2270,22 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>0.05475700934906745</v>
+        <v>0.0777375662804503</v>
       </c>
       <c r="C69">
-        <v>0.008883730967434281</v>
+        <v>-0.0564787455563794</v>
       </c>
       <c r="D69">
-        <v>0.04222587606471642</v>
+        <v>-0.009964681222330778</v>
       </c>
       <c r="E69">
-        <v>-0.03135537421876436</v>
+        <v>-0.03570521374976561</v>
       </c>
       <c r="F69">
-        <v>-0.04284867953511871</v>
+        <v>0.03773464776709771</v>
       </c>
       <c r="G69">
-        <v>-0.001416651650558213</v>
+        <v>0.01185149660224822</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2316,22 +2316,22 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1120123403296063</v>
+        <v>0.1146695975014068</v>
       </c>
       <c r="C71">
-        <v>-0.04716470373614106</v>
+        <v>0.2291731218449269</v>
       </c>
       <c r="D71">
-        <v>-0.2059530597205101</v>
+        <v>-0.008566882516131462</v>
       </c>
       <c r="E71">
-        <v>0.01733609939364077</v>
+        <v>0.01978800729712521</v>
       </c>
       <c r="F71">
-        <v>-0.02534306620199653</v>
+        <v>0.02385889684318539</v>
       </c>
       <c r="G71">
-        <v>0.04702765624070745</v>
+        <v>0.03202784866726153</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2339,22 +2339,22 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1250634291270325</v>
+        <v>0.08397464240938987</v>
       </c>
       <c r="C72">
-        <v>0.007088923068149578</v>
+        <v>-0.07887089477525439</v>
       </c>
       <c r="D72">
-        <v>0.1393687789209718</v>
+        <v>-0.009495166004153028</v>
       </c>
       <c r="E72">
-        <v>0.1115806035683313</v>
+        <v>-0.01960988301729574</v>
       </c>
       <c r="F72">
-        <v>-0.09659788352463755</v>
+        <v>-0.03660907173578718</v>
       </c>
       <c r="G72">
-        <v>-0.2646946265492017</v>
+        <v>-0.006582916948029338</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2362,22 +2362,22 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2559586471302482</v>
+        <v>0.4032672259718293</v>
       </c>
       <c r="C73">
-        <v>-0.09731150589978295</v>
+        <v>-0.09051829473841883</v>
       </c>
       <c r="D73">
-        <v>0.09287817435649458</v>
+        <v>0.009608623249635182</v>
       </c>
       <c r="E73">
-        <v>0.2848793734952573</v>
+        <v>0.0756521970276314</v>
       </c>
       <c r="F73">
-        <v>0.1835387849047261</v>
+        <v>-0.5296198746851787</v>
       </c>
       <c r="G73">
-        <v>-0.3121198206935905</v>
+        <v>-0.09173489214331476</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2385,22 +2385,22 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1207169302969631</v>
+        <v>0.1205464748333116</v>
       </c>
       <c r="C74">
-        <v>0.01119257588414572</v>
+        <v>-0.1115477168964253</v>
       </c>
       <c r="D74">
-        <v>0.09879763632065848</v>
+        <v>-0.01116124501138201</v>
       </c>
       <c r="E74">
-        <v>-0.08357615034431796</v>
+        <v>-0.03886905105502816</v>
       </c>
       <c r="F74">
-        <v>-0.04112284895831299</v>
+        <v>0.07368522951176432</v>
       </c>
       <c r="G74">
-        <v>-0.01010102007468657</v>
+        <v>0.008594692268970389</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2408,22 +2408,22 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2397885626174983</v>
+        <v>0.2692010521414504</v>
       </c>
       <c r="C75">
-        <v>0.009834350580338748</v>
+        <v>-0.1323399827701924</v>
       </c>
       <c r="D75">
-        <v>0.1516492674033888</v>
+        <v>-0.03257704964628336</v>
       </c>
       <c r="E75">
-        <v>-0.1594607301808418</v>
+        <v>-0.06242279829723617</v>
       </c>
       <c r="F75">
-        <v>0.008744761230357136</v>
+        <v>0.2205365072775269</v>
       </c>
       <c r="G75">
-        <v>0.01010441093975741</v>
+        <v>-0.03870898667923858</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2431,22 +2431,22 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>0.2265679113006512</v>
+        <v>0.1493309838574279</v>
       </c>
       <c r="C76">
-        <v>0.03215864538468449</v>
+        <v>-0.1133840364611121</v>
       </c>
       <c r="D76">
-        <v>0.1548395045517694</v>
+        <v>-0.02367503644846665</v>
       </c>
       <c r="E76">
-        <v>-0.2315193269682712</v>
+        <v>-0.06927208516730546</v>
       </c>
       <c r="F76">
-        <v>0.002673648011774017</v>
+        <v>0.1436490126711008</v>
       </c>
       <c r="G76">
-        <v>0.01858288214774172</v>
+        <v>-0.002681624508684281</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2454,22 +2454,22 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>0.04008416646753961</v>
+        <v>0.05573027993480266</v>
       </c>
       <c r="C77">
-        <v>0.006698571639616136</v>
+        <v>-0.06091116443510187</v>
       </c>
       <c r="D77">
-        <v>0.05742448608171573</v>
+        <v>0.01197541207584999</v>
       </c>
       <c r="E77">
-        <v>0.06590739910442592</v>
+        <v>0.02911146154125401</v>
       </c>
       <c r="F77">
-        <v>-0.02566943910216361</v>
+        <v>-0.00643010294856567</v>
       </c>
       <c r="G77">
-        <v>0.1636330521628803</v>
+        <v>0.03730087767697916</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2477,22 +2477,22 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>0.0270213717229524</v>
+        <v>0.04389041990522831</v>
       </c>
       <c r="C78">
-        <v>0.01124184025279964</v>
+        <v>-0.05178059210591053</v>
       </c>
       <c r="D78">
-        <v>0.04496168101347277</v>
+        <v>0.004818868415468934</v>
       </c>
       <c r="E78">
-        <v>0.05587596107229317</v>
+        <v>0.01340641966186552</v>
       </c>
       <c r="F78">
-        <v>0.003131006332101534</v>
+        <v>-0.04491466327313659</v>
       </c>
       <c r="G78">
-        <v>-0.03783755015783869</v>
+        <v>0.02747196047607034</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2523,22 +2523,22 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>0.2010236171748842</v>
+        <v>0.06604914475529734</v>
       </c>
       <c r="C80">
-        <v>0.9321320734378202</v>
+        <v>-0.07686571006301465</v>
       </c>
       <c r="D80">
-        <v>-0.190605095999766</v>
+        <v>0.01305218979102317</v>
       </c>
       <c r="E80">
-        <v>0.1343309771938723</v>
+        <v>-0.07824176200977422</v>
       </c>
       <c r="F80">
-        <v>0.01498361780593894</v>
+        <v>0.01991410543244515</v>
       </c>
       <c r="G80">
-        <v>0.05151098256263489</v>
+        <v>0.9245080321517861</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2546,22 +2546,22 @@
         <v>85</v>
       </c>
       <c r="B81">
-        <v>0.183829457699548</v>
+        <v>0.1543471065184291</v>
       </c>
       <c r="C81">
-        <v>0.01944666082757292</v>
+        <v>-0.08502382311362031</v>
       </c>
       <c r="D81">
-        <v>0.1124999257736454</v>
+        <v>-0.01802805444078668</v>
       </c>
       <c r="E81">
-        <v>-0.1259710051317498</v>
+        <v>-0.04375654055817766</v>
       </c>
       <c r="F81">
-        <v>-0.02407273079870201</v>
+        <v>0.1396327206133177</v>
       </c>
       <c r="G81">
-        <v>0.03282307332835101</v>
+        <v>0.002348431710065877</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2569,22 +2569,22 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.04280756142142271</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03047873563467205</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002294413187878209</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01997260713385244</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>-0.001910579275780821</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>-0.003763367632033011</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2592,22 +2592,22 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03428804733124622</v>
+        <v>0.02935011878831427</v>
       </c>
       <c r="C83">
-        <v>-0.00209084089417013</v>
+        <v>-0.01822263894632709</v>
       </c>
       <c r="D83">
-        <v>0.01139476575350455</v>
+        <v>0.004849356040838169</v>
       </c>
       <c r="E83">
-        <v>0.04151602740612633</v>
+        <v>0.02323925197756266</v>
       </c>
       <c r="F83">
-        <v>-0.02089669581348862</v>
+        <v>-0.02490161753617355</v>
       </c>
       <c r="G83">
-        <v>-0.01235712715778642</v>
+        <v>0.02711780828315313</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2638,22 +2638,22 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2257582696116599</v>
+        <v>0.2498176920460504</v>
       </c>
       <c r="C85">
-        <v>0.005217659753407257</v>
+        <v>-0.1394577444525547</v>
       </c>
       <c r="D85">
-        <v>0.1863849255441334</v>
+        <v>-0.02133895169045981</v>
       </c>
       <c r="E85">
-        <v>-0.1704468119009631</v>
+        <v>-0.1032656539309239</v>
       </c>
       <c r="F85">
-        <v>0.02202996696445515</v>
+        <v>0.2070691505094</v>
       </c>
       <c r="G85">
-        <v>0.03818057605970158</v>
+        <v>-0.0666065575551094</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2661,22 +2661,22 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01524961663505238</v>
+        <v>0.009713534488891434</v>
       </c>
       <c r="C86">
-        <v>0.009881674893218943</v>
+        <v>-0.02301108680095131</v>
       </c>
       <c r="D86">
-        <v>0.01980270294609293</v>
+        <v>0.009677619045306408</v>
       </c>
       <c r="E86">
-        <v>0.05095156378960409</v>
+        <v>0.01585706629886154</v>
       </c>
       <c r="F86">
-        <v>-0.06000171244703308</v>
+        <v>-0.02382702867763885</v>
       </c>
       <c r="G86">
-        <v>-0.01406740049999341</v>
+        <v>0.05005645555834147</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2684,22 +2684,22 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02758140839937352</v>
+        <v>0.01758323110022793</v>
       </c>
       <c r="C87">
-        <v>0.007780548619224389</v>
+        <v>-0.02605299545724126</v>
       </c>
       <c r="D87">
-        <v>0.03067267788792457</v>
+        <v>0.01106032725342398</v>
       </c>
       <c r="E87">
-        <v>0.1014261127097491</v>
+        <v>0.07508572409563764</v>
       </c>
       <c r="F87">
-        <v>-0.01955055190193739</v>
+        <v>-0.06236123106739131</v>
       </c>
       <c r="G87">
-        <v>-0.03413026879052984</v>
+        <v>0.0413214655285018</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2707,22 +2707,22 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05127097898105372</v>
+        <v>0.08767576644268615</v>
       </c>
       <c r="C88">
-        <v>-0.006951083850658115</v>
+        <v>-0.04878755865833771</v>
       </c>
       <c r="D88">
-        <v>0.005981418376375487</v>
+        <v>0.02050353795230002</v>
       </c>
       <c r="E88">
-        <v>-0.008706300622731058</v>
+        <v>-0.01567027285727794</v>
       </c>
       <c r="F88">
-        <v>-0.02860846145297889</v>
+        <v>-0.007326267753876661</v>
       </c>
       <c r="G88">
-        <v>-0.02687073682111006</v>
+        <v>0.01972467427413287</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2730,22 +2730,22 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2243206532872693</v>
+        <v>0.2063774074828634</v>
       </c>
       <c r="C89">
-        <v>-0.1243020463140503</v>
+        <v>0.3841602644306213</v>
       </c>
       <c r="D89">
-        <v>-0.3586448278311405</v>
+        <v>-0.01150119968201845</v>
       </c>
       <c r="E89">
-        <v>-0.005226113390677137</v>
+        <v>-0.01125704487162951</v>
       </c>
       <c r="F89">
-        <v>0.002224085479157727</v>
+        <v>0.02180002368125513</v>
       </c>
       <c r="G89">
-        <v>-0.001621210189743403</v>
+        <v>0.02905351919331044</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2753,22 +2753,22 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1342911429174433</v>
+        <v>0.167555790158805</v>
       </c>
       <c r="C90">
-        <v>-0.1078283137671874</v>
+        <v>0.3440966023194537</v>
       </c>
       <c r="D90">
-        <v>-0.2995453734841368</v>
+        <v>-0.01332281449253717</v>
       </c>
       <c r="E90">
-        <v>-0.04462651963919289</v>
+        <v>0.003925992435109825</v>
       </c>
       <c r="F90">
-        <v>0.06184120700746024</v>
+        <v>0.03836343816512062</v>
       </c>
       <c r="G90">
-        <v>0.08828206474154063</v>
+        <v>0.003708218292627323</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2776,22 +2776,22 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>0.2506950610934416</v>
+        <v>0.2216337793632437</v>
       </c>
       <c r="C91">
-        <v>0.009114499936467157</v>
+        <v>-0.126085501230181</v>
       </c>
       <c r="D91">
-        <v>0.186247792273133</v>
+        <v>-0.02689091385992264</v>
       </c>
       <c r="E91">
-        <v>-0.2343286468159371</v>
+        <v>-0.08585271304156128</v>
       </c>
       <c r="F91">
-        <v>0.02064058042717273</v>
+        <v>0.1930317370817074</v>
       </c>
       <c r="G91">
-        <v>0.04944637840875732</v>
+        <v>-0.02459042849179964</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2799,22 +2799,22 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2960062921698536</v>
+        <v>0.2046678408183349</v>
       </c>
       <c r="C92">
-        <v>-0.1024901931184639</v>
+        <v>0.2802035437701065</v>
       </c>
       <c r="D92">
-        <v>-0.2749752546553757</v>
+        <v>-0.05710394377726463</v>
       </c>
       <c r="E92">
-        <v>-0.1549562434327143</v>
+        <v>0.0007630010818627308</v>
       </c>
       <c r="F92">
-        <v>-0.08275500264769049</v>
+        <v>0.138741809809113</v>
       </c>
       <c r="G92">
-        <v>0.1508772236730243</v>
+        <v>0.0547384717078329</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2822,22 +2822,22 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2007230944806658</v>
+        <v>0.195129047678012</v>
       </c>
       <c r="C93">
-        <v>-0.139190269103124</v>
+        <v>0.341858870533539</v>
       </c>
       <c r="D93">
-        <v>-0.3493777060215914</v>
+        <v>-0.02043964801099094</v>
       </c>
       <c r="E93">
-        <v>-0.003533972228377714</v>
+        <v>0.01650644895870857</v>
       </c>
       <c r="F93">
-        <v>0.03104042901238567</v>
+        <v>0.00822426201373266</v>
       </c>
       <c r="G93">
-        <v>0.005777448426308454</v>
+        <v>-0.001474147857781384</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2845,22 +2845,22 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2995902200768353</v>
+        <v>0.2912278873044086</v>
       </c>
       <c r="C94">
-        <v>-0.02930845787035981</v>
+        <v>-0.1369350063541561</v>
       </c>
       <c r="D94">
-        <v>0.1743480773166943</v>
+        <v>-0.01551261708800292</v>
       </c>
       <c r="E94">
-        <v>-0.2488091232866206</v>
+        <v>-0.09613902059117133</v>
       </c>
       <c r="F94">
-        <v>0.05975834088149835</v>
+        <v>0.3709288055910625</v>
       </c>
       <c r="G94">
-        <v>0.1369512236532953</v>
+        <v>-0.1271002028490869</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2868,22 +2868,22 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>0.08516579112864428</v>
+        <v>0.0729868779764795</v>
       </c>
       <c r="C95">
-        <v>-0.0713401551711505</v>
+        <v>-0.07703594504816097</v>
       </c>
       <c r="D95">
-        <v>0.05398017623675395</v>
+        <v>-0.00696371829222228</v>
       </c>
       <c r="E95">
-        <v>-0.01989465088879049</v>
+        <v>0.07721377479430945</v>
       </c>
       <c r="F95">
-        <v>-0.1355307002417398</v>
+        <v>-0.1466351235886585</v>
       </c>
       <c r="G95">
-        <v>-0.1145351369491743</v>
+        <v>-0.05625435249556971</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2937,22 +2937,22 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2120021591397251</v>
+        <v>0.2144935005099791</v>
       </c>
       <c r="C98">
-        <v>-0.06340488428581609</v>
+        <v>-0.03718081157460122</v>
       </c>
       <c r="D98">
-        <v>0.02838204399418118</v>
+        <v>-0.01997478951427758</v>
       </c>
       <c r="E98">
-        <v>0.281058479723382</v>
+        <v>0.07216727204057083</v>
       </c>
       <c r="F98">
-        <v>0.1074154854843806</v>
+        <v>-0.2593252019971585</v>
       </c>
       <c r="G98">
-        <v>-0.3371904125223098</v>
+        <v>-0.02532640321657267</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3006,22 +3006,22 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02823210854010804</v>
+        <v>0.01404218118516842</v>
       </c>
       <c r="C101">
-        <v>0.003132015890824896</v>
+        <v>-0.01934606125705355</v>
       </c>
       <c r="D101">
-        <v>0.01943133399201473</v>
+        <v>0.008120358075430059</v>
       </c>
       <c r="E101">
-        <v>0.1044787706547645</v>
+        <v>0.03205370811868874</v>
       </c>
       <c r="F101">
-        <v>-0.08387809150072938</v>
+        <v>0.0235947753017374</v>
       </c>
       <c r="G101">
-        <v>0.1371190183602725</v>
+        <v>0.03370526901907021</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3029,22 +3029,22 @@
         <v>106</v>
       </c>
       <c r="B102">
-        <v>0.129164296641792</v>
+        <v>0.1287932374280675</v>
       </c>
       <c r="C102">
-        <v>0.006007364306253296</v>
+        <v>-0.07429038740381447</v>
       </c>
       <c r="D102">
-        <v>0.08525403503654415</v>
+        <v>-0.001200461846455024</v>
       </c>
       <c r="E102">
-        <v>-0.105763698452001</v>
+        <v>-0.04636784713025072</v>
       </c>
       <c r="F102">
-        <v>0.01232228976333521</v>
+        <v>0.0636756978093448</v>
       </c>
       <c r="G102">
-        <v>0.0453683372573055</v>
+        <v>-0.01925656257354228</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3052,22 +3052,22 @@
         <v>107</v>
       </c>
       <c r="B103">
-        <v>0.03127665867135661</v>
+        <v>0.006437155606896919</v>
       </c>
       <c r="C103">
-        <v>0.01734337637561355</v>
+        <v>-0.005675390985171176</v>
       </c>
       <c r="D103">
-        <v>0.02448990600951739</v>
+        <v>0.0001699622936648576</v>
       </c>
       <c r="E103">
-        <v>-0.01684472271298474</v>
+        <v>-0.00320891226085432</v>
       </c>
       <c r="F103">
-        <v>0.002851327351128728</v>
+        <v>0.01117752425859345</v>
       </c>
       <c r="G103">
-        <v>0.003803140673481809</v>
+        <v>0.0131893685866521</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3075,22 +3075,22 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.03110195774886868</v>
+        <v>0.04501926842222377</v>
       </c>
       <c r="C104">
-        <v>-0.02444028933346891</v>
+        <v>0.04967652386917711</v>
       </c>
       <c r="D104">
-        <v>0.04522777913389679</v>
+        <v>0.9855413326282166</v>
       </c>
       <c r="E104">
-        <v>0.1216316916580974</v>
+        <v>-0.0428108433256549</v>
       </c>
       <c r="F104">
-        <v>0.8176881242345574</v>
+        <v>0.03674622891753097</v>
       </c>
       <c r="G104">
-        <v>0.3667578446487229</v>
+        <v>-0.001411623457565527</v>
       </c>
     </row>
   </sheetData>
